--- a/DSA/DSA Problems-Leet Code.xlsx
+++ b/DSA/DSA Problems-Leet Code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isplahd-my.sharepoint.com/personal/michael_samuel_apexon_com1/Documents/GS-Runway/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DD9346-E834-46C5-87D5-52791293C4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DD430A-BC02-407A-9C88-077B23A79238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Serial No.</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>shortest-path-in-binary-matrix</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
   </si>
 </sst>
 </file>
@@ -521,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D931DD6F-6035-4A61-85EA-75A16782F4C0}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="1" sqref="B17 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -754,6 +757,14 @@
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -783,18 +794,18 @@
     <hyperlink ref="B14" r:id="rId23" xr:uid="{7F2E018B-BCC7-43CC-943A-98ED4E888FE2}"/>
     <hyperlink ref="B15" r:id="rId24" xr:uid="{909F60BE-C4E1-4C04-BB99-8171E99C42B9}"/>
     <hyperlink ref="B27" r:id="rId25" xr:uid="{3E1C6C4F-6B6B-4B85-96DA-FBC7583190A7}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{2B0691E8-A53B-4187-913A-CF3A9C16248F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ac494756-9636-462a-beb7-437c924e74c0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,15 +997,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ac494756-9636-462a-beb7-437c924e74c0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D9387D-A0C1-48DE-A56B-6D5F41CC431C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F669-36D2-45EE-8DE6-BD72B1C66B0E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,5 +1014,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F669-36D2-45EE-8DE6-BD72B1C66B0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D9387D-A0C1-48DE-A56B-6D5F41CC431C}"/>
 </file>